--- a/Data/Transitions/19081918Translation.xlsx
+++ b/Data/Transitions/19081918Translation.xlsx
@@ -136,7 +136,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
+    <t>{311.0: 0.023413950227830355}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -160,13 +160,13 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286}</t>
+    <t>{764.0: 0.1490527567751253}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -184,7 +184,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.832372267667963}</t>
+    <t>{86.0: 0.8323610272916248}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -241,7 +241,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -265,7 +265,7 @@
     <t>{142.0: 1.0}</t>
   </si>
   <si>
-    <t>{144.0: 0.9651930696915546}</t>
+    <t>{144.0: 0.9651714219077976}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -274,7 +274,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9168485213334336, 764.0: 0.02364448224537529}</t>
+    <t>{147.0: 0.9109445519019987, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -343,10 +343,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 1.0, 180.0: 0.03254877942077172, 850.0: 0.0065536559720050964}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9674512205792283, 850.0: 0.19479509161951705}</t>
+    <t>{179.0: 1.0, 180.0: 0.02915132042943343, 850.0: 0.009625001531993029}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9708486795705665, 850.0: 0.32054877413941296}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -373,7 +373,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 940.0: 0.4877637130801688}</t>
+    <t>{206.0: 0.8527388535031847, 940.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -466,6 +466,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -484,7 +487,7 @@
     <t>{249.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
   </si>
   <si>
     <t>{251.0: 1.0}</t>
@@ -550,10 +553,10 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434104, 850.0: 0.3516377649325626}</t>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434104, 850.0: 0.5766192733017378}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -643,7 +646,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -667,9 +670,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -679,7 +679,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -829,7 +829,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.6817752596789424, 837.0: 0.009122201354230282}</t>
+    <t>{486.0: 0.6817752596789424, 837.0: 0.00936130623498098}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -904,7 +904,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.688038942976356}</t>
+    <t>{534.0: 0.7103938024531956}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -979,7 +979,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715}</t>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1009,13 +1009,13 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.8964618622832515}</t>
+    <t>{593.0: 0.8967309807057883}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1039,7 +1039,7 @@
     <t>{603.0: 0.518114955053119}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 837.0: 0.04255546531013551}</t>
+    <t>{604.0: 1.0, 837.0: 0.043670899958325106}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1069,7 +1069,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1144,7 +1144,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1183,7 +1183,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1222,7 +1222,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.08315147866656633}</t>
+    <t>{733.0: 1.0, 147.0: 0.08905544809800128}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1306,7 +1306,7 @@
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 19.0: 0.13507462686567165}</t>
@@ -1429,7 +1429,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.44701348747591524, 277.0: 0.03624987585658953}</t>
+    <t>{850.0: 0.09320695102685624, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1507,7 +1507,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.9829448214812629}</t>
+    <t>{897.0: 0.9831299982487888}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1534,7 +1534,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.31196105702364396}</t>
+    <t>{534.0: 0.2896061975468044}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1588,13 +1588,13 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 593.0: 0.10353813771674852}</t>
+    <t>{937.0: 1.0, 593.0: 0.10326901929421174}</t>
   </si>
   <si>
     <t>{910.0: 0.1834781652183478}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.1472611464968153}</t>
+    <t>{940.0: 0.49782797567332754, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1645,7 +1645,7 @@
     <t>{410.0: 0.2834354798085803, 729.0: 0.1333273316528628}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 850.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434101, 850.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{289.0: 0.7035714285714286, 730.0: 0.29642857142857143}</t>
@@ -1720,7 +1720,7 @@
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
   </si>
   <si>
-    <t>{400.0: 0.9681191395477109, 897.0: 0.03188086045228902}</t>
+    <t>{400.0: 0.968119139547711, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
     <t>{410.0: 1.0}</t>
@@ -1738,7 +1738,7 @@
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587967, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -1756,7 +1756,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8182233178124716, 837.0: 0.18177668218752852}</t>
+    <t>{604.0: 0.8183062602664718, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1795,7 +1795,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787178, 917.0: 0.07999122892128212}</t>
+    <t>{754.0: 0.8492529563266304, 917.0: 0.15074704367336975}</t>
   </si>
   <si>
     <t>{837.0: 0.9689657749414814, 486.0: 0.031034225058518626}</t>
@@ -1804,7 +1804,7 @@
     <t>{838.0: 0.9103516592372461, 19.0: 0.08964834076275384}</t>
   </si>
   <si>
-    <t>{850.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{850.0: 0.1391509433962264, 277.0: 0.8608490566037735}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697807, 976.0: 0.12672623883021933}</t>
@@ -1819,10 +1819,10 @@
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.6599736668861093, 593.0: 0.3400263331138907}</t>
-  </si>
-  <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
+    <t>{937.0: 0.6643924626380766, 593.0: 0.3356075373619233}</t>
+  </si>
+  <si>
+    <t>{940.0: 0.4978279756733276, 206.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1831,7 +1831,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.40451855836471223}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3897,29 +3897,29 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>561</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>561</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3952,40 +3952,40 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>562</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>563</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4062,29 +4062,29 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>563</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>172</v>
+        <v>563</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4139,40 +4139,40 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>564</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>565</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4260,29 +4260,29 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>566</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>566</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4480,29 +4480,29 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>567</v>
+        <v>209</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>210</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
